--- a/Symphony/Others/Adding New Retailer Format/Retailer name change format.xlsx
+++ b/Symphony/Others/Adding New Retailer Format/Retailer name change format.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="607"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Transaction Method</t>
   </si>
@@ -25,38 +25,29 @@
     <t>Retail Code</t>
   </si>
   <si>
-    <t>Retailer New Name</t>
-  </si>
-  <si>
     <t>Old Retail Name</t>
   </si>
   <si>
     <t>New Retail Name</t>
   </si>
   <si>
-    <t>RET-36547</t>
-  </si>
-  <si>
-    <t>Bismillah Mobile Shop 2</t>
-  </si>
-  <si>
-    <t>Jewel Telecom</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>RET-36436</t>
-  </si>
-  <si>
-    <t>Ma Telecom</t>
+    <t>HS Mobile Center</t>
+  </si>
+  <si>
+    <t>SH Mobile Center</t>
+  </si>
+  <si>
+    <t>RET-40191</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,9 +221,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,6 +256,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,117 +432,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Symphony/Others/Adding New Retailer Format/Retailer name change format.xlsx
+++ b/Symphony/Others/Adding New Retailer Format/Retailer name change format.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Transaction Method</t>
   </si>
@@ -34,13 +34,13 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>HS Mobile Center</t>
-  </si>
-  <si>
-    <t>SH Mobile Center</t>
-  </si>
-  <si>
-    <t>RET-40191</t>
+    <t>Somobai Bazar</t>
+  </si>
+  <si>
+    <t>RET-32597</t>
+  </si>
+  <si>
+    <t>RK Mobile King</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,19 +470,19 @@
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
+      <c r="E2" s="5">
+        <v>1309083520</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
